--- a/data/warn-scraper/cache/ca/WARN_Report.xlsx
+++ b/data/warn-scraper/cache/ca/WARN_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="700">
   <si>
     <t/>
   </si>
@@ -1808,6 +1808,327 @@
     <t>8360 Belvedere Ave  Sacramento CA 95826</t>
   </si>
   <si>
+    <t>Wyndham Hotels &amp; Resorts dba La Quinta Fremont with L.Q. Management LLC</t>
+  </si>
+  <si>
+    <t>1752 S. Clementine St.  Anaheim CA 92802</t>
+  </si>
+  <si>
+    <t>Yolo County</t>
+  </si>
+  <si>
+    <t>Land O&amp;rsquo;Lakes, Inc.</t>
+  </si>
+  <si>
+    <t>7661 Becker Road  Davis CA 95618</t>
+  </si>
+  <si>
+    <t>SBE</t>
+  </si>
+  <si>
+    <t>702 American Way  Glendale CA 91210</t>
+  </si>
+  <si>
+    <t>Marin County</t>
+  </si>
+  <si>
+    <t>Marin General Hospital dba MarinHealth Medical Center</t>
+  </si>
+  <si>
+    <t>75 Rowland Way  Novato CA 94945</t>
+  </si>
+  <si>
+    <t>1300 S Eliseo Dr  Greenbrae CA 94904</t>
+  </si>
+  <si>
+    <t>1240 S Eliseo Dr  Greenbrae CA 94904</t>
+  </si>
+  <si>
+    <t>3950 Civic Center Drive  San Rafael CA 94903</t>
+  </si>
+  <si>
+    <t>250 Bon Air Road  Greenbrae CA 94904</t>
+  </si>
+  <si>
+    <t>Walkenhorst&amp;rsquo;s</t>
+  </si>
+  <si>
+    <t>211 Gateway Rd West, Suite 201  Napa CA 94558</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>10912 Katella Ave  Garden Grove CA 92804</t>
+  </si>
+  <si>
+    <t>Allakos</t>
+  </si>
+  <si>
+    <t>975 Island Drive  Redwood City CA 94065</t>
+  </si>
+  <si>
+    <t>Delicato Vineyards LLC dba Delicato Family Wines and San Bernabe Vineyards LLC, Delaware Limited Lia</t>
+  </si>
+  <si>
+    <t>53001 Oasis  Rd.  King City CA 93930</t>
+  </si>
+  <si>
+    <t>Nan McKay &amp; Associates</t>
+  </si>
+  <si>
+    <t>1815 Egbert Avenue  San Francisco CA 94124</t>
+  </si>
+  <si>
+    <t>Tuolumne County</t>
+  </si>
+  <si>
+    <t>Crothall Healthcare Environmental Services at Adventist Health Sonora</t>
+  </si>
+  <si>
+    <t>1000 Greenley Rd.  Sonora CA 95370</t>
+  </si>
+  <si>
+    <t>Hyperloop Technologies, Inc. dba Virgin Hyperloop</t>
+  </si>
+  <si>
+    <t>2159 Bay St.  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>Crothall Healthcare Bakersfield</t>
+  </si>
+  <si>
+    <t>2615 Chester Avenue  Bakersfield CA 93301</t>
+  </si>
+  <si>
+    <t>Crothall Healthcare Delano</t>
+  </si>
+  <si>
+    <t>1401 Garces Hwy  Delano CA 93215</t>
+  </si>
+  <si>
+    <t>Crothall Healthcare Tehachapi</t>
+  </si>
+  <si>
+    <t>1100 Magellan Drive  Tehachapi CA 93561</t>
+  </si>
+  <si>
+    <t>St. John&amp;rsquo;s Retirement Village</t>
+  </si>
+  <si>
+    <t>135 Woodland Ave.  Woodland CA 95695</t>
+  </si>
+  <si>
+    <t>California Psychcare, Inc., Behavior Respite in Action, Inc. and Z &amp; S Management Corporation</t>
+  </si>
+  <si>
+    <t>732 N Norma Street, Unit B  Ridgecrest CA 93555</t>
+  </si>
+  <si>
+    <t>Trego/Dugan Aviation of Grand Island, Inc.</t>
+  </si>
+  <si>
+    <t>780 S Airport Blvd.  San Francisco CA 94128</t>
+  </si>
+  <si>
+    <t>Nestle USA, Inc</t>
+  </si>
+  <si>
+    <t>3080 Hilltop Road  Moss Landing CA 95039</t>
+  </si>
+  <si>
+    <t>1670 Champagne Avenue  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>Fox Factory, Inc</t>
+  </si>
+  <si>
+    <t>200 El Pueblo Road  Scotts Valley CA 95066</t>
+  </si>
+  <si>
+    <t>Keeco, LLC</t>
+  </si>
+  <si>
+    <t>5770 Peachtree Street  Los Angeles CA 90040</t>
+  </si>
+  <si>
+    <t>Employnet, Inc.</t>
+  </si>
+  <si>
+    <t>Meriliz, Inc. dba Dome Printing</t>
+  </si>
+  <si>
+    <t>2031 Dome Lane  Mcclellan CA 95652</t>
+  </si>
+  <si>
+    <t>Prospect Financial Group Inc. DBA Prospect Home Finance</t>
+  </si>
+  <si>
+    <t>7825 Fay Avenue Suite 160  La Jolla CA 92037</t>
+  </si>
+  <si>
+    <t>Pennymac</t>
+  </si>
+  <si>
+    <t>3043 Townsgate Road  Westlake Village CA 91361</t>
+  </si>
+  <si>
+    <t>112 Lakeview Canyon  Westlake Village CA 91361</t>
+  </si>
+  <si>
+    <t>251 S. Lake Avenue  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>Pacific Catch, Inc.</t>
+  </si>
+  <si>
+    <t>1200 9th Avenue  San Francisco CA 94122</t>
+  </si>
+  <si>
+    <t>6101 Condor Drive  Moorpark CA 93021</t>
+  </si>
+  <si>
+    <t>CWD, LLC dba Centric Parts</t>
+  </si>
+  <si>
+    <t>14528 Bonelli St.  City of Industry CA 91746</t>
+  </si>
+  <si>
+    <t>Curology Inc.</t>
+  </si>
+  <si>
+    <t>5717 Pacific Center Drive Suite 200  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>353 Sacramento St. Suite 1300  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Pacific Catch Inc.</t>
+  </si>
+  <si>
+    <t>1875 S. Bascom Avenue Suite 550  Campbell CA 95008</t>
+  </si>
+  <si>
+    <t>DS Operations LLC dba Donahue Schriber</t>
+  </si>
+  <si>
+    <t>200 E. Baker Street, Suite 100  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>GXO Logistics Supply Chain Inc.</t>
+  </si>
+  <si>
+    <t>3443 East Central Avenue  Fresno CA 93725</t>
+  </si>
+  <si>
+    <t>MedImpact Healthcare Systems</t>
+  </si>
+  <si>
+    <t>10159 Scripps Gateway Ct.  San Diego CA 92131</t>
+  </si>
+  <si>
+    <t>10181 Scripps Gateway Ct  San Diego CA 92131</t>
+  </si>
+  <si>
+    <t>Positive Pathways, LLC</t>
+  </si>
+  <si>
+    <t>640 W. 2nd Street  Antioch CA 94509</t>
+  </si>
+  <si>
+    <t>29903 Agoura Road  Agoura Hills CA 91301</t>
+  </si>
+  <si>
+    <t>Monarch Delivers, LLC</t>
+  </si>
+  <si>
+    <t>25725 Jeronimo Rd  Mission Viejo CA 92691</t>
+  </si>
+  <si>
+    <t>3013 Douglas Blvd  Roseville CA 95661</t>
+  </si>
+  <si>
+    <t>1501 Mariposa Street, Suite 312  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>Aramark Educational Services LLC</t>
+  </si>
+  <si>
+    <t>800 N. State College Blvd.  Fullerton CA 92831</t>
+  </si>
+  <si>
+    <t>PULAU Corporation</t>
+  </si>
+  <si>
+    <t>Bicycle Lake Army Airfield 6201A Westbrook Ave.  Fort Irwin CA 92310</t>
+  </si>
+  <si>
+    <t>Building 6100 Barstow Road  Fort Irwin CA 92310</t>
+  </si>
+  <si>
+    <t>Siemens Healthcare Diagnostics Inc.</t>
+  </si>
+  <si>
+    <t>5210 Pacific Concourse Drive  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Gama Berry Farms, LLC</t>
+  </si>
+  <si>
+    <t>4000 Central Avenue  Camarillo CA 93010</t>
+  </si>
+  <si>
+    <t>4110 Wood Road  Oxnard CA 93030</t>
+  </si>
+  <si>
+    <t>Interviewing Service of America, LLC</t>
+  </si>
+  <si>
+    <t>15400 Sherman Way, Suite 400  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>Davidson Hotel Company LLC dba Pivot Hotels and Resorts</t>
+  </si>
+  <si>
+    <t>50 8th St  San Francisco CA 94103</t>
+  </si>
+  <si>
+    <t>General Atomics</t>
+  </si>
+  <si>
+    <t>10880 Thornmint Rd.  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>11222 Flintkote Avenue  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>16825 Via Del Campo Ct.  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>16510 Via Esprillo  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>16761 Via Del Campo Ct.  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>16530 Via Esprillo  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>16969 Mesamint St.  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>Azusa Pacific University</t>
+  </si>
+  <si>
+    <t>901 E. Alosta Ave.  Azusa CA 91702</t>
+  </si>
+  <si>
+    <t>Edelmann USA Inc.</t>
+  </si>
+  <si>
+    <t>2150 S. Parco Avenue  Ontario CA 91761</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Employees Affected</t>
   </si>
   <si>
@@ -1834,7 +2155,8 @@
   <si>
     <t xml:space="preserve"> - Filter By Date: Received Date
  - Start Date: 7/1/2021
- - End Date: 2/9/2022</t>
+ - End Date: 3/23/2022
+</t>
   </si>
   <si>
     <t>WARN Summary</t>
@@ -1908,6 +2230,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFDCDCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFDCDCDC"/>
       </patternFill>
@@ -1915,18 +2249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor rgb="FFDCDCDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,16 +2632,51 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2327,73 +2684,38 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2675,31 +2997,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R449"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>591</v>
+        <v>698</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2719,91 +3042,91 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+    <row r="2" spans="1:18" ht="39.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:18" ht="24.75">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="44" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="47" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="48"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
@@ -14135,52 +14458,52 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="2" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="B359" s="3">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="C359" s="4">
         <v>44586</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="3">
-        <v>44638</v>
+        <v>44652</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="G359" s="7"/>
       <c r="H359" s="5"/>
       <c r="I359" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J359" s="5"/>
       <c r="K359" s="8">
-        <v>658</v>
+        <v>71</v>
       </c>
       <c r="L359" s="5"/>
       <c r="M359" s="9" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="N359" s="10"/>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" ht="22.5" customHeight="1">
       <c r="A360" s="11" t="s">
-        <v>320</v>
+        <v>552</v>
       </c>
       <c r="B360" s="12">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="C360" s="13">
         <v>44586</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="12">
-        <v>44652</v>
+        <v>44606</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>321</v>
+        <v>553</v>
       </c>
       <c r="G360" s="7"/>
       <c r="H360" s="5"/>
@@ -14189,62 +14512,62 @@
       </c>
       <c r="J360" s="5"/>
       <c r="K360" s="15">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L360" s="5"/>
       <c r="M360" s="16" t="s">
-        <v>322</v>
+        <v>554</v>
       </c>
       <c r="N360" s="10"/>
     </row>
-    <row r="361" spans="1:14" ht="22.5" customHeight="1">
+    <row r="361" spans="1:14">
       <c r="A361" s="2" t="s">
-        <v>552</v>
+        <v>9</v>
       </c>
       <c r="B361" s="3">
         <v>44586</v>
       </c>
       <c r="C361" s="4">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="3">
-        <v>44606</v>
+        <v>44651</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G361" s="7"/>
       <c r="H361" s="5"/>
       <c r="I361" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J361" s="5"/>
       <c r="K361" s="8">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="L361" s="5"/>
       <c r="M361" s="9" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N361" s="10"/>
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B362" s="12">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="C362" s="13">
         <v>44587</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="12">
-        <v>44651</v>
+        <v>44630</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G362" s="7"/>
       <c r="H362" s="5"/>
@@ -14253,81 +14576,81 @@
       </c>
       <c r="J362" s="5"/>
       <c r="K362" s="15">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="L362" s="5"/>
       <c r="M362" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N362" s="10"/>
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B363" s="3">
-        <v>44571</v>
+        <v>44578</v>
       </c>
       <c r="C363" s="4">
         <v>44587</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="3">
-        <v>44630</v>
+        <v>44645</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G363" s="7"/>
       <c r="H363" s="5"/>
       <c r="I363" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J363" s="5"/>
       <c r="K363" s="8">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="L363" s="5"/>
       <c r="M363" s="9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N363" s="10"/>
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B364" s="12">
-        <v>44578</v>
+        <v>44588</v>
       </c>
       <c r="C364" s="13">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="12">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>559</v>
+        <v>379</v>
       </c>
       <c r="G364" s="7"/>
       <c r="H364" s="5"/>
       <c r="I364" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J364" s="5"/>
       <c r="K364" s="15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L364" s="5"/>
       <c r="M364" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N364" s="10"/>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B365" s="3">
         <v>44588</v>
@@ -14337,29 +14660,29 @@
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="3">
-        <v>44652</v>
+        <v>44648</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>379</v>
+        <v>562</v>
       </c>
       <c r="G365" s="7"/>
       <c r="H365" s="5"/>
       <c r="I365" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J365" s="5"/>
       <c r="K365" s="8">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L365" s="5"/>
       <c r="M365" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N365" s="10"/>
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="11" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B366" s="12">
         <v>44588</v>
@@ -14369,10 +14692,10 @@
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="12">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G366" s="7"/>
       <c r="H366" s="5"/>
@@ -14381,30 +14704,30 @@
       </c>
       <c r="J366" s="5"/>
       <c r="K366" s="15">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="L366" s="5"/>
       <c r="M366" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N366" s="10"/>
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B367" s="3">
         <v>44588</v>
       </c>
       <c r="C367" s="4">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="3">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G367" s="7"/>
       <c r="H367" s="5"/>
@@ -14413,11 +14736,11 @@
       </c>
       <c r="J367" s="5"/>
       <c r="K367" s="8">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="L367" s="5"/>
       <c r="M367" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N367" s="10"/>
     </row>
@@ -14445,11 +14768,11 @@
       </c>
       <c r="J368" s="5"/>
       <c r="K368" s="15">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="L368" s="5"/>
       <c r="M368" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N368" s="10"/>
     </row>
@@ -14477,30 +14800,30 @@
       </c>
       <c r="J369" s="5"/>
       <c r="K369" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L369" s="5"/>
       <c r="M369" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N369" s="10"/>
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="11" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B370" s="12">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C370" s="13">
         <v>44589</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="12">
-        <v>44652</v>
+        <v>44648</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>566</v>
+        <v>335</v>
       </c>
       <c r="G370" s="7"/>
       <c r="H370" s="5"/>
@@ -14509,43 +14832,43 @@
       </c>
       <c r="J370" s="5"/>
       <c r="K370" s="15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L370" s="5"/>
       <c r="M370" s="16" t="s">
-        <v>569</v>
+        <v>336</v>
       </c>
       <c r="N370" s="10"/>
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B371" s="3">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="C371" s="4">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="3">
-        <v>44648</v>
+        <v>44653</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>335</v>
+        <v>570</v>
       </c>
       <c r="G371" s="7"/>
       <c r="H371" s="5"/>
       <c r="I371" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J371" s="5"/>
       <c r="K371" s="8">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L371" s="5"/>
       <c r="M371" s="9" t="s">
-        <v>336</v>
+        <v>571</v>
       </c>
       <c r="N371" s="10"/>
     </row>
@@ -14573,11 +14896,11 @@
       </c>
       <c r="J372" s="5"/>
       <c r="K372" s="15">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="L372" s="5"/>
       <c r="M372" s="16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N372" s="10"/>
     </row>
@@ -14605,75 +14928,75 @@
       </c>
       <c r="J373" s="5"/>
       <c r="K373" s="8">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="L373" s="5"/>
       <c r="M373" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N373" s="10"/>
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="11" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B374" s="12">
-        <v>44589</v>
+        <v>44593</v>
       </c>
       <c r="C374" s="13">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="12">
-        <v>44653</v>
+        <v>44658</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G374" s="7"/>
       <c r="H374" s="5"/>
       <c r="I374" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J374" s="5"/>
       <c r="K374" s="15">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L374" s="5"/>
       <c r="M374" s="16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N374" s="10"/>
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B375" s="3">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="C375" s="4">
         <v>44595</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="3">
-        <v>44658</v>
+        <v>44651</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G375" s="7"/>
       <c r="H375" s="5"/>
       <c r="I375" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J375" s="5"/>
       <c r="K375" s="8">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L375" s="5"/>
       <c r="M375" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N375" s="10"/>
     </row>
@@ -14682,173 +15005,2726 @@
         <v>54</v>
       </c>
       <c r="B376" s="12">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="C376" s="13">
-        <v>44595</v>
+        <v>44599</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="12">
-        <v>44651</v>
+        <v>44587</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G376" s="7"/>
       <c r="H376" s="5"/>
       <c r="I376" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J376" s="5"/>
       <c r="K376" s="15">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="L376" s="5"/>
       <c r="M376" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N376" s="10"/>
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="2" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="B377" s="3">
-        <v>44587</v>
+        <v>44601</v>
       </c>
       <c r="C377" s="4">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="3">
-        <v>44587</v>
+        <v>44647</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G377" s="7"/>
       <c r="H377" s="5"/>
       <c r="I377" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J377" s="5"/>
       <c r="K377" s="8">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="L377" s="5"/>
       <c r="M377" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N377" s="10"/>
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="11" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="B378" s="12">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C378" s="13">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="12">
-        <v>44647</v>
+        <v>44622</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G378" s="7"/>
       <c r="H378" s="5"/>
       <c r="I378" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J378" s="5"/>
       <c r="K378" s="15">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="L378" s="5"/>
       <c r="M378" s="16" t="s">
-        <v>581</v>
+        <v>457</v>
       </c>
       <c r="N378" s="10"/>
     </row>
-    <row r="379" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A379" s="28" t="s">
+    <row r="379" spans="1:14">
+      <c r="A379" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B379" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C379" s="4">
+        <v>44602</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="3">
+        <v>44622</v>
+      </c>
+      <c r="F379" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G379" s="7"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J379" s="5"/>
+      <c r="K379" s="8">
+        <v>21</v>
+      </c>
+      <c r="L379" s="5"/>
+      <c r="M379" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="N379" s="10"/>
+    </row>
+    <row r="380" spans="1:14">
+      <c r="A380" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B380" s="12">
+        <v>44602</v>
+      </c>
+      <c r="C380" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="12">
+        <v>44622</v>
+      </c>
+      <c r="F380" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="G380" s="7"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J380" s="5"/>
+      <c r="K380" s="15">
+        <v>19</v>
+      </c>
+      <c r="L380" s="5"/>
+      <c r="M380" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="N380" s="10"/>
+    </row>
+    <row r="381" spans="1:14">
+      <c r="A381" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B381" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C381" s="4">
+        <v>44602</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="3">
+        <v>44622</v>
+      </c>
+      <c r="F381" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G381" s="7"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J381" s="5"/>
+      <c r="K381" s="8">
+        <v>27</v>
+      </c>
+      <c r="L381" s="5"/>
+      <c r="M381" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="N381" s="10"/>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B382" s="12">
+        <v>44602</v>
+      </c>
+      <c r="C382" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="12">
+        <v>44622</v>
+      </c>
+      <c r="F382" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G382" s="7"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J382" s="5"/>
+      <c r="K382" s="15">
+        <v>21</v>
+      </c>
+      <c r="L382" s="5"/>
+      <c r="M382" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="N382" s="10"/>
+    </row>
+    <row r="383" spans="1:14">
+      <c r="A383" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B383" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C383" s="4">
+        <v>44603</v>
+      </c>
+      <c r="D383" s="5"/>
+      <c r="E383" s="3">
+        <v>44663</v>
+      </c>
+      <c r="F383" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G383" s="7"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J383" s="5"/>
+      <c r="K383" s="8">
+        <v>23</v>
+      </c>
+      <c r="L383" s="5"/>
+      <c r="M383" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N383" s="10"/>
+    </row>
+    <row r="384" spans="1:14">
+      <c r="A384" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B384" s="12">
+        <v>44602</v>
+      </c>
+      <c r="C384" s="13">
+        <v>44603</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="12">
+        <v>44621</v>
+      </c>
+      <c r="F384" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="G384" s="7"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J384" s="5"/>
+      <c r="K384" s="15">
+        <v>6</v>
+      </c>
+      <c r="L384" s="5"/>
+      <c r="M384" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="N384" s="10"/>
+    </row>
+    <row r="385" spans="1:14">
+      <c r="A385" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B385" s="3">
+        <v>44532</v>
+      </c>
+      <c r="C385" s="4">
+        <v>44606</v>
+      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="3">
+        <v>44584</v>
+      </c>
+      <c r="F385" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G385" s="7"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J385" s="5"/>
+      <c r="K385" s="8">
+        <v>40</v>
+      </c>
+      <c r="L385" s="5"/>
+      <c r="M385" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="N385" s="10"/>
+    </row>
+    <row r="386" spans="1:14">
+      <c r="A386" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B386" s="12">
+        <v>44595</v>
+      </c>
+      <c r="C386" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="12">
+        <v>44660</v>
+      </c>
+      <c r="F386" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J386" s="5"/>
+      <c r="K386" s="15">
+        <v>3</v>
+      </c>
+      <c r="L386" s="5"/>
+      <c r="M386" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="N386" s="10"/>
+    </row>
+    <row r="387" spans="1:14">
+      <c r="A387" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B387" s="3">
+        <v>44595</v>
+      </c>
+      <c r="C387" s="4">
+        <v>44608</v>
+      </c>
+      <c r="D387" s="5"/>
+      <c r="E387" s="3">
+        <v>44660</v>
+      </c>
+      <c r="F387" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G387" s="7"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J387" s="5"/>
+      <c r="K387" s="8">
+        <v>4</v>
+      </c>
+      <c r="L387" s="5"/>
+      <c r="M387" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B379" s="29"/>
-      <c r="C379" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D379" s="31"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="G379" s="33" t="s">
+      <c r="N387" s="10"/>
+    </row>
+    <row r="388" spans="1:14">
+      <c r="A388" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B388" s="12">
+        <v>44595</v>
+      </c>
+      <c r="C388" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="12">
+        <v>44660</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="G388" s="7"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J388" s="5"/>
+      <c r="K388" s="15">
+        <v>14</v>
+      </c>
+      <c r="L388" s="5"/>
+      <c r="M388" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="N388" s="10"/>
+    </row>
+    <row r="389" spans="1:14">
+      <c r="A389" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B389" s="3">
+        <v>44595</v>
+      </c>
+      <c r="C389" s="4">
+        <v>44608</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="3">
+        <v>44660</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G389" s="7"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J389" s="5"/>
+      <c r="K389" s="8">
+        <v>41</v>
+      </c>
+      <c r="L389" s="5"/>
+      <c r="M389" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="N389" s="10"/>
+    </row>
+    <row r="390" spans="1:14">
+      <c r="A390" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B390" s="12">
+        <v>44595</v>
+      </c>
+      <c r="C390" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D390" s="5"/>
+      <c r="E390" s="12">
+        <v>44660</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="G390" s="7"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J390" s="5"/>
+      <c r="K390" s="15">
+        <v>42</v>
+      </c>
+      <c r="L390" s="5"/>
+      <c r="M390" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="N390" s="10"/>
+    </row>
+    <row r="391" spans="1:14" ht="15" customHeight="1">
+      <c r="A391" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B391" s="3">
+        <v>44607</v>
+      </c>
+      <c r="C391" s="4">
+        <v>44608</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="3">
+        <v>44693</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G391" s="7"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J391" s="5"/>
+      <c r="K391" s="8">
+        <v>11</v>
+      </c>
+      <c r="L391" s="5"/>
+      <c r="M391" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="N391" s="10"/>
+    </row>
+    <row r="392" spans="1:14">
+      <c r="A392" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" s="12">
+        <v>44607</v>
+      </c>
+      <c r="C392" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="12">
+        <v>44701</v>
+      </c>
+      <c r="F392" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G392" s="7"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J392" s="5"/>
+      <c r="K392" s="15">
+        <v>105</v>
+      </c>
+      <c r="L392" s="5"/>
+      <c r="M392" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="N392" s="10"/>
+    </row>
+    <row r="393" spans="1:14">
+      <c r="A393" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B393" s="3">
+        <v>44607</v>
+      </c>
+      <c r="C393" s="4">
+        <v>44608</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="3">
+        <v>44608</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G393" s="7"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J393" s="5"/>
+      <c r="K393" s="8">
+        <v>61</v>
+      </c>
+      <c r="L393" s="5"/>
+      <c r="M393" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="N393" s="10"/>
+    </row>
+    <row r="394" spans="1:14">
+      <c r="A394" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B394" s="12">
+        <v>44607</v>
+      </c>
+      <c r="C394" s="13">
+        <v>44609</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="12">
+        <v>44669</v>
+      </c>
+      <c r="F394" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="G394" s="7"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J394" s="5"/>
+      <c r="K394" s="15">
+        <v>26</v>
+      </c>
+      <c r="L394" s="5"/>
+      <c r="M394" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="N394" s="10"/>
+    </row>
+    <row r="395" spans="1:14">
+      <c r="A395" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B395" s="3">
+        <v>44608</v>
+      </c>
+      <c r="C395" s="4">
+        <v>44609</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="3">
+        <v>44621</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G395" s="7"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J395" s="5"/>
+      <c r="K395" s="8">
+        <v>68</v>
+      </c>
+      <c r="L395" s="5"/>
+      <c r="M395" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="N395" s="10"/>
+    </row>
+    <row r="396" spans="1:14">
+      <c r="A396" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B396" s="12">
+        <v>44607</v>
+      </c>
+      <c r="C396" s="13">
+        <v>44609</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="12">
+        <v>44668</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G396" s="7"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J396" s="5"/>
+      <c r="K396" s="15">
+        <v>25</v>
+      </c>
+      <c r="L396" s="5"/>
+      <c r="M396" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="N396" s="10"/>
+    </row>
+    <row r="397" spans="1:14">
+      <c r="A397" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B397" s="3">
+        <v>44610</v>
+      </c>
+      <c r="C397" s="4">
+        <v>44610</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="3">
+        <v>44671</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G397" s="7"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J397" s="5"/>
+      <c r="K397" s="8">
+        <v>84</v>
+      </c>
+      <c r="L397" s="5"/>
+      <c r="M397" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="N397" s="10"/>
+    </row>
+    <row r="398" spans="1:14">
+      <c r="A398" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B398" s="12">
+        <v>44607</v>
+      </c>
+      <c r="C398" s="13">
+        <v>44614</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="12">
+        <v>44668</v>
+      </c>
+      <c r="F398" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="G398" s="7"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J398" s="5"/>
+      <c r="K398" s="15">
+        <v>89</v>
+      </c>
+      <c r="L398" s="5"/>
+      <c r="M398" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="N398" s="10"/>
+    </row>
+    <row r="399" spans="1:14">
+      <c r="A399" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B399" s="3">
+        <v>44607</v>
+      </c>
+      <c r="C399" s="4">
+        <v>44614</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="3">
+        <v>44668</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="G399" s="7"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J399" s="5"/>
+      <c r="K399" s="8">
+        <v>31</v>
+      </c>
+      <c r="L399" s="5"/>
+      <c r="M399" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="N399" s="10"/>
+    </row>
+    <row r="400" spans="1:14">
+      <c r="A400" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B400" s="12">
+        <v>44607</v>
+      </c>
+      <c r="C400" s="13">
+        <v>44614</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="12">
+        <v>44668</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="G400" s="7"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J400" s="5"/>
+      <c r="K400" s="15">
+        <v>13</v>
+      </c>
+      <c r="L400" s="5"/>
+      <c r="M400" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="N400" s="10"/>
+    </row>
+    <row r="401" spans="1:14">
+      <c r="A401" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B401" s="3">
+        <v>44614</v>
+      </c>
+      <c r="C401" s="4">
+        <v>44614</v>
+      </c>
+      <c r="D401" s="5"/>
+      <c r="E401" s="3">
+        <v>44680</v>
+      </c>
+      <c r="F401" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G401" s="7"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J401" s="5"/>
+      <c r="K401" s="8">
+        <v>6</v>
+      </c>
+      <c r="L401" s="5"/>
+      <c r="M401" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="N401" s="10"/>
+    </row>
+    <row r="402" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A402" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="H379" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="I379" s="32"/>
-      <c r="J379" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="K379" s="32"/>
-      <c r="L379" s="30" t="s">
-        <v>587</v>
-      </c>
-      <c r="M379" s="32"/>
-      <c r="N379" s="34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14" s="24" customFormat="1">
-      <c r="A380" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="B380" s="26"/>
-      <c r="C380" s="21">
-        <v>25104</v>
-      </c>
-      <c r="D380" s="17"/>
-      <c r="E380" s="18"/>
-      <c r="F380" s="22">
-        <v>174</v>
-      </c>
-      <c r="G380" s="27">
-        <v>15</v>
-      </c>
-      <c r="H380" s="21">
+      <c r="B402" s="12">
+        <v>44615</v>
+      </c>
+      <c r="C402" s="13">
+        <v>44615</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="12">
+        <v>44671</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="G402" s="7"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J402" s="5"/>
+      <c r="K402" s="15">
+        <v>64</v>
+      </c>
+      <c r="L402" s="5"/>
+      <c r="M402" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="N402" s="10"/>
+    </row>
+    <row r="403" spans="1:14">
+      <c r="A403" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B403" s="3">
+        <v>44617</v>
+      </c>
+      <c r="C403" s="4">
+        <v>44617</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="3">
+        <v>44680</v>
+      </c>
+      <c r="F403" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G403" s="7"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J403" s="5"/>
+      <c r="K403" s="8">
+        <v>36</v>
+      </c>
+      <c r="L403" s="5"/>
+      <c r="M403" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="N403" s="10"/>
+    </row>
+    <row r="404" spans="1:14">
+      <c r="A404" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B404" s="12">
+        <v>44620</v>
+      </c>
+      <c r="C404" s="13">
+        <v>44620</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="12">
+        <v>44681</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="G404" s="7"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J404" s="5"/>
+      <c r="K404" s="15">
+        <v>35</v>
+      </c>
+      <c r="L404" s="5"/>
+      <c r="M404" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="N404" s="10"/>
+    </row>
+    <row r="405" spans="1:14">
+      <c r="A405" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B405" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C405" s="4">
+        <v>44624</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="3">
+        <v>44687</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G405" s="7"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J405" s="5"/>
+      <c r="K405" s="8">
+        <v>104</v>
+      </c>
+      <c r="L405" s="5"/>
+      <c r="M405" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="N405" s="10"/>
+    </row>
+    <row r="406" spans="1:14" ht="15" customHeight="1">
+      <c r="A406" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B406" s="12">
+        <v>44622</v>
+      </c>
+      <c r="C406" s="13">
+        <v>44624</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="12">
+        <v>44682</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="G406" s="7"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J406" s="5"/>
+      <c r="K406" s="15">
+        <v>80</v>
+      </c>
+      <c r="L406" s="5"/>
+      <c r="M406" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="N406" s="10"/>
+    </row>
+    <row r="407" spans="1:14" ht="15" customHeight="1">
+      <c r="A407" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B407" s="3">
+        <v>44622</v>
+      </c>
+      <c r="C407" s="4">
+        <v>44624</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="3">
+        <v>44622</v>
+      </c>
+      <c r="F407" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="G407" s="7"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J407" s="5"/>
+      <c r="K407" s="8">
+        <v>83</v>
+      </c>
+      <c r="L407" s="5"/>
+      <c r="M407" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="N407" s="10"/>
+    </row>
+    <row r="408" spans="1:14">
+      <c r="A408" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B408" s="12">
+        <v>44624</v>
+      </c>
+      <c r="C408" s="13">
+        <v>44627</v>
+      </c>
+      <c r="D408" s="5"/>
+      <c r="E408" s="12">
+        <v>44690</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="G408" s="7"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J408" s="5"/>
+      <c r="K408" s="15">
+        <v>134</v>
+      </c>
+      <c r="L408" s="5"/>
+      <c r="M408" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="N408" s="10"/>
+    </row>
+    <row r="409" spans="1:14" ht="15" customHeight="1">
+      <c r="A409" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B409" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C409" s="4">
+        <v>44627</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="3">
+        <v>44687</v>
+      </c>
+      <c r="F409" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G409" s="7"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J409" s="5"/>
+      <c r="K409" s="8">
+        <v>36</v>
+      </c>
+      <c r="L409" s="5"/>
+      <c r="M409" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="N409" s="10"/>
+    </row>
+    <row r="410" spans="1:14">
+      <c r="A410" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B410" s="12">
+        <v>44592</v>
+      </c>
+      <c r="C410" s="13">
+        <v>44627</v>
+      </c>
+      <c r="D410" s="5"/>
+      <c r="E410" s="12">
+        <v>44622</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="G410" s="7"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J410" s="5"/>
+      <c r="K410" s="15">
+        <v>34</v>
+      </c>
+      <c r="L410" s="5"/>
+      <c r="M410" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="N410" s="10"/>
+    </row>
+    <row r="411" spans="1:14">
+      <c r="A411" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B411" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C411" s="4">
+        <v>44627</v>
+      </c>
+      <c r="D411" s="5"/>
+      <c r="E411" s="3">
+        <v>44624</v>
+      </c>
+      <c r="F411" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G411" s="7"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J411" s="5"/>
+      <c r="K411" s="8">
+        <v>5</v>
+      </c>
+      <c r="L411" s="5"/>
+      <c r="M411" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="N411" s="10"/>
+    </row>
+    <row r="412" spans="1:14" ht="15" customHeight="1">
+      <c r="A412" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B412" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C412" s="13">
+        <v>44628</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G412" s="7"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J412" s="5"/>
+      <c r="K412" s="15">
+        <v>16</v>
+      </c>
+      <c r="L412" s="5"/>
+      <c r="M412" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="N412" s="10"/>
+    </row>
+    <row r="413" spans="1:14" ht="15" customHeight="1">
+      <c r="A413" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B413" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C413" s="4">
+        <v>44628</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="3">
+        <v>44687</v>
+      </c>
+      <c r="F413" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G413" s="7"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J413" s="5"/>
+      <c r="K413" s="8">
+        <v>80</v>
+      </c>
+      <c r="L413" s="5"/>
+      <c r="M413" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="N413" s="10"/>
+    </row>
+    <row r="414" spans="1:14" ht="15" customHeight="1">
+      <c r="A414" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B414" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C414" s="13">
+        <v>44628</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G414" s="7"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J414" s="5"/>
+      <c r="K414" s="15">
+        <v>24</v>
+      </c>
+      <c r="L414" s="5"/>
+      <c r="M414" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="N414" s="10"/>
+    </row>
+    <row r="415" spans="1:14">
+      <c r="A415" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B415" s="3">
+        <v>44608</v>
+      </c>
+      <c r="C415" s="4">
+        <v>44628</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="3">
+        <v>44669</v>
+      </c>
+      <c r="F415" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G415" s="7"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J415" s="5"/>
+      <c r="K415" s="8">
+        <v>63</v>
+      </c>
+      <c r="L415" s="5"/>
+      <c r="M415" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="N415" s="10"/>
+    </row>
+    <row r="416" spans="1:14" ht="15" customHeight="1">
+      <c r="A416" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B416" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C416" s="13">
+        <v>44629</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G416" s="7"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J416" s="5"/>
+      <c r="K416" s="15">
+        <v>16</v>
+      </c>
+      <c r="L416" s="5"/>
+      <c r="M416" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="N416" s="10"/>
+    </row>
+    <row r="417" spans="1:14">
+      <c r="A417" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B417" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C417" s="4">
+        <v>44630</v>
+      </c>
+      <c r="D417" s="5"/>
+      <c r="E417" s="3">
+        <v>44696</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G417" s="7"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J417" s="5"/>
+      <c r="K417" s="8">
+        <v>252</v>
+      </c>
+      <c r="L417" s="5"/>
+      <c r="M417" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="N417" s="10"/>
+    </row>
+    <row r="418" spans="1:14">
+      <c r="A418" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B418" s="12">
+        <v>44628</v>
+      </c>
+      <c r="C418" s="13">
+        <v>44630</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="12">
+        <v>44688</v>
+      </c>
+      <c r="F418" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="G418" s="7"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J418" s="5"/>
+      <c r="K418" s="15">
+        <v>91</v>
+      </c>
+      <c r="L418" s="5"/>
+      <c r="M418" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="N418" s="10"/>
+    </row>
+    <row r="419" spans="1:14">
+      <c r="A419" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B419" s="3">
+        <v>44628</v>
+      </c>
+      <c r="C419" s="4">
+        <v>44630</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="3">
+        <v>44688</v>
+      </c>
+      <c r="F419" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G419" s="7"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J419" s="5"/>
+      <c r="K419" s="8">
+        <v>39</v>
+      </c>
+      <c r="L419" s="5"/>
+      <c r="M419" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="N419" s="10"/>
+    </row>
+    <row r="420" spans="1:14">
+      <c r="A420" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B420" s="12">
+        <v>44629</v>
+      </c>
+      <c r="C420" s="13">
+        <v>44630</v>
+      </c>
+      <c r="D420" s="5"/>
+      <c r="E420" s="12">
+        <v>44690</v>
+      </c>
+      <c r="F420" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G420" s="7"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J420" s="5"/>
+      <c r="K420" s="15">
+        <v>86</v>
+      </c>
+      <c r="L420" s="5"/>
+      <c r="M420" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="N420" s="10"/>
+    </row>
+    <row r="421" spans="1:14">
+      <c r="A421" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B421" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C421" s="4">
+        <v>44634</v>
+      </c>
+      <c r="D421" s="5"/>
+      <c r="E421" s="3">
+        <v>44651</v>
+      </c>
+      <c r="F421" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G421" s="7"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J421" s="5"/>
+      <c r="K421" s="8">
+        <v>36</v>
+      </c>
+      <c r="L421" s="5"/>
+      <c r="M421" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="N421" s="10"/>
+    </row>
+    <row r="422" spans="1:14">
+      <c r="A422" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" s="12">
+        <v>44634</v>
+      </c>
+      <c r="C422" s="13">
+        <v>44635</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="12">
+        <v>44695</v>
+      </c>
+      <c r="F422" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J422" s="5"/>
+      <c r="K422" s="15">
+        <v>139</v>
+      </c>
+      <c r="L422" s="5"/>
+      <c r="M422" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="N422" s="10"/>
+    </row>
+    <row r="423" spans="1:14">
+      <c r="A423" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B423" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C423" s="4">
+        <v>44635</v>
+      </c>
+      <c r="D423" s="5"/>
+      <c r="E423" s="3">
+        <v>44687</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="G423" s="7"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J423" s="5"/>
+      <c r="K423" s="8">
+        <v>49</v>
+      </c>
+      <c r="L423" s="5"/>
+      <c r="M423" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="N423" s="10"/>
+    </row>
+    <row r="424" spans="1:14">
+      <c r="A424" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B424" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C424" s="13">
+        <v>44635</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F424" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="G424" s="7"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J424" s="5"/>
+      <c r="K424" s="15">
+        <v>76</v>
+      </c>
+      <c r="L424" s="5"/>
+      <c r="M424" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="N424" s="10"/>
+    </row>
+    <row r="425" spans="1:14" ht="15" customHeight="1">
+      <c r="A425" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B425" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C425" s="4">
+        <v>44636</v>
+      </c>
+      <c r="D425" s="5"/>
+      <c r="E425" s="3">
+        <v>44694</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="G425" s="7"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J425" s="5"/>
+      <c r="K425" s="8">
+        <v>8</v>
+      </c>
+      <c r="L425" s="5"/>
+      <c r="M425" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="N425" s="10"/>
+    </row>
+    <row r="426" spans="1:14" ht="15" customHeight="1">
+      <c r="A426" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B426" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C426" s="13">
+        <v>44636</v>
+      </c>
+      <c r="D426" s="5"/>
+      <c r="E426" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F426" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G426" s="7"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J426" s="5"/>
+      <c r="K426" s="15">
+        <v>19</v>
+      </c>
+      <c r="L426" s="5"/>
+      <c r="M426" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="N426" s="10"/>
+    </row>
+    <row r="427" spans="1:14">
+      <c r="A427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B427" s="3">
+        <v>44635</v>
+      </c>
+      <c r="C427" s="4">
+        <v>44636</v>
+      </c>
+      <c r="D427" s="5"/>
+      <c r="E427" s="3">
+        <v>44698</v>
+      </c>
+      <c r="F427" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G427" s="7"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J427" s="5"/>
+      <c r="K427" s="8">
+        <v>72</v>
+      </c>
+      <c r="L427" s="5"/>
+      <c r="M427" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="N427" s="10"/>
+    </row>
+    <row r="428" spans="1:14" ht="15" customHeight="1">
+      <c r="A428" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B428" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C428" s="13">
+        <v>44636</v>
+      </c>
+      <c r="D428" s="5"/>
+      <c r="E428" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F428" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G428" s="7"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J428" s="5"/>
+      <c r="K428" s="15">
+        <v>81</v>
+      </c>
+      <c r="L428" s="5"/>
+      <c r="M428" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="N428" s="10"/>
+    </row>
+    <row r="429" spans="1:14" ht="15" customHeight="1">
+      <c r="A429" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B429" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C429" s="4">
+        <v>44636</v>
+      </c>
+      <c r="D429" s="5"/>
+      <c r="E429" s="3">
+        <v>44694</v>
+      </c>
+      <c r="F429" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="G429" s="7"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J429" s="5"/>
+      <c r="K429" s="8">
+        <v>82</v>
+      </c>
+      <c r="L429" s="5"/>
+      <c r="M429" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="N429" s="10"/>
+    </row>
+    <row r="430" spans="1:14">
+      <c r="A430" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B430" s="12">
+        <v>44637</v>
+      </c>
+      <c r="C430" s="13">
+        <v>44637</v>
+      </c>
+      <c r="D430" s="5"/>
+      <c r="E430" s="12">
+        <v>44701</v>
+      </c>
+      <c r="F430" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="G430" s="7"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J430" s="5"/>
+      <c r="K430" s="15">
+        <v>140</v>
+      </c>
+      <c r="L430" s="5"/>
+      <c r="M430" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="N430" s="10"/>
+    </row>
+    <row r="431" spans="1:14" ht="15" customHeight="1">
+      <c r="A431" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B431" s="3">
+        <v>44635</v>
+      </c>
+      <c r="C431" s="4">
+        <v>44637</v>
+      </c>
+      <c r="D431" s="5"/>
+      <c r="E431" s="3">
+        <v>44667</v>
+      </c>
+      <c r="F431" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G431" s="7"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J431" s="5"/>
+      <c r="K431" s="8">
+        <v>12</v>
+      </c>
+      <c r="L431" s="5"/>
+      <c r="M431" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="N431" s="10"/>
+    </row>
+    <row r="432" spans="1:14" ht="15" customHeight="1">
+      <c r="A432" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B432" s="12">
+        <v>44635</v>
+      </c>
+      <c r="C432" s="13">
+        <v>44637</v>
+      </c>
+      <c r="D432" s="5"/>
+      <c r="E432" s="12">
+        <v>44667</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="G432" s="7"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J432" s="5"/>
+      <c r="K432" s="15">
+        <v>48</v>
+      </c>
+      <c r="L432" s="5"/>
+      <c r="M432" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="N432" s="10"/>
+    </row>
+    <row r="433" spans="1:14">
+      <c r="A433" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B433" s="3">
+        <v>44638</v>
+      </c>
+      <c r="C433" s="4">
+        <v>44638</v>
+      </c>
+      <c r="D433" s="5"/>
+      <c r="E433" s="3">
+        <v>44742</v>
+      </c>
+      <c r="F433" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G433" s="7"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J433" s="5"/>
+      <c r="K433" s="8">
+        <v>86</v>
+      </c>
+      <c r="L433" s="5"/>
+      <c r="M433" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="N433" s="10"/>
+    </row>
+    <row r="434" spans="1:14">
+      <c r="A434" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B434" s="12">
+        <v>44629</v>
+      </c>
+      <c r="C434" s="13">
+        <v>44638</v>
+      </c>
+      <c r="D434" s="5"/>
+      <c r="E434" s="12">
+        <v>44652</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="G434" s="7"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J434" s="5"/>
+      <c r="K434" s="15">
+        <v>89</v>
+      </c>
+      <c r="L434" s="5"/>
+      <c r="M434" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="N434" s="10"/>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B435" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C435" s="4">
+        <v>44638</v>
+      </c>
+      <c r="D435" s="5"/>
+      <c r="E435" s="3">
+        <v>44652</v>
+      </c>
+      <c r="F435" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G435" s="7"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J435" s="5"/>
+      <c r="K435" s="8">
+        <v>89</v>
+      </c>
+      <c r="L435" s="5"/>
+      <c r="M435" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="N435" s="10"/>
+    </row>
+    <row r="436" spans="1:14">
+      <c r="A436" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B436" s="12">
+        <v>44641</v>
+      </c>
+      <c r="C436" s="13">
+        <v>44641</v>
+      </c>
+      <c r="D436" s="5"/>
+      <c r="E436" s="12">
+        <v>44708</v>
+      </c>
+      <c r="F436" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G436" s="7"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J436" s="5"/>
+      <c r="K436" s="15">
+        <v>100</v>
+      </c>
+      <c r="L436" s="5"/>
+      <c r="M436" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="N436" s="10"/>
+    </row>
+    <row r="437" spans="1:14">
+      <c r="A437" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B437" s="3">
+        <v>44641</v>
+      </c>
+      <c r="C437" s="4">
+        <v>44641</v>
+      </c>
+      <c r="D437" s="5"/>
+      <c r="E437" s="3">
+        <v>44661</v>
+      </c>
+      <c r="F437" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G437" s="7"/>
+      <c r="H437" s="5"/>
+      <c r="I437" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J437" s="5"/>
+      <c r="K437" s="8">
+        <v>83</v>
+      </c>
+      <c r="L437" s="5"/>
+      <c r="M437" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="N437" s="10"/>
+    </row>
+    <row r="438" spans="1:14">
+      <c r="A438" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B438" s="12">
+        <v>44636</v>
+      </c>
+      <c r="C438" s="13">
+        <v>44642</v>
+      </c>
+      <c r="D438" s="5"/>
+      <c r="E438" s="12">
+        <v>44697</v>
+      </c>
+      <c r="F438" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="G438" s="7"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J438" s="5"/>
+      <c r="K438" s="15">
+        <v>1</v>
+      </c>
+      <c r="L438" s="5"/>
+      <c r="M438" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="N438" s="10"/>
+    </row>
+    <row r="439" spans="1:14">
+      <c r="A439" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B439" s="3">
+        <v>44636</v>
+      </c>
+      <c r="C439" s="4">
+        <v>44642</v>
+      </c>
+      <c r="D439" s="5"/>
+      <c r="E439" s="3">
+        <v>44697</v>
+      </c>
+      <c r="F439" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G439" s="7"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J439" s="5"/>
+      <c r="K439" s="8">
+        <v>1</v>
+      </c>
+      <c r="L439" s="5"/>
+      <c r="M439" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="N439" s="10"/>
+    </row>
+    <row r="440" spans="1:14">
+      <c r="A440" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B440" s="12">
+        <v>44636</v>
+      </c>
+      <c r="C440" s="13">
+        <v>44642</v>
+      </c>
+      <c r="D440" s="5"/>
+      <c r="E440" s="12">
+        <v>44697</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="G440" s="7"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J440" s="5"/>
+      <c r="K440" s="15">
+        <v>3</v>
+      </c>
+      <c r="L440" s="5"/>
+      <c r="M440" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="N440" s="10"/>
+    </row>
+    <row r="441" spans="1:14">
+      <c r="A441" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B441" s="3">
+        <v>44636</v>
+      </c>
+      <c r="C441" s="4">
+        <v>44642</v>
+      </c>
+      <c r="D441" s="5"/>
+      <c r="E441" s="3">
+        <v>44697</v>
+      </c>
+      <c r="F441" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G441" s="7"/>
+      <c r="H441" s="5"/>
+      <c r="I441" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J441" s="5"/>
+      <c r="K441" s="8">
+        <v>10</v>
+      </c>
+      <c r="L441" s="5"/>
+      <c r="M441" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="N441" s="10"/>
+    </row>
+    <row r="442" spans="1:14">
+      <c r="A442" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B442" s="12">
+        <v>44636</v>
+      </c>
+      <c r="C442" s="13">
+        <v>44642</v>
+      </c>
+      <c r="D442" s="5"/>
+      <c r="E442" s="12">
+        <v>44697</v>
+      </c>
+      <c r="F442" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="G442" s="7"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J442" s="5"/>
+      <c r="K442" s="15">
+        <v>11</v>
+      </c>
+      <c r="L442" s="5"/>
+      <c r="M442" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="N442" s="10"/>
+    </row>
+    <row r="443" spans="1:14">
+      <c r="A443" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B443" s="3">
+        <v>44636</v>
+      </c>
+      <c r="C443" s="4">
+        <v>44642</v>
+      </c>
+      <c r="D443" s="5"/>
+      <c r="E443" s="3">
+        <v>44697</v>
+      </c>
+      <c r="F443" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G443" s="7"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J443" s="5"/>
+      <c r="K443" s="8">
+        <v>40</v>
+      </c>
+      <c r="L443" s="5"/>
+      <c r="M443" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="N443" s="10"/>
+    </row>
+    <row r="444" spans="1:14">
+      <c r="A444" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B444" s="12">
+        <v>44636</v>
+      </c>
+      <c r="C444" s="13">
+        <v>44642</v>
+      </c>
+      <c r="D444" s="5"/>
+      <c r="E444" s="12">
+        <v>44697</v>
+      </c>
+      <c r="F444" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="G444" s="7"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J444" s="5"/>
+      <c r="K444" s="15">
+        <v>47</v>
+      </c>
+      <c r="L444" s="5"/>
+      <c r="M444" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="N444" s="10"/>
+    </row>
+    <row r="445" spans="1:14">
+      <c r="A445" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B445" s="3">
+        <v>44643</v>
+      </c>
+      <c r="C445" s="4">
+        <v>44643</v>
+      </c>
+      <c r="D445" s="5"/>
+      <c r="E445" s="3">
+        <v>44669</v>
+      </c>
+      <c r="F445" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="G445" s="7"/>
+      <c r="H445" s="5"/>
+      <c r="I445" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J445" s="5"/>
+      <c r="K445" s="8">
+        <v>27</v>
+      </c>
+      <c r="L445" s="5"/>
+      <c r="M445" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="N445" s="10"/>
+    </row>
+    <row r="446" spans="1:14">
+      <c r="A446" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B446" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C446" s="13">
+        <v>44643</v>
+      </c>
+      <c r="D446" s="5"/>
+      <c r="E446" s="12">
+        <v>44742</v>
+      </c>
+      <c r="F446" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="G446" s="7"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" s="5"/>
+      <c r="K446" s="15">
+        <v>90</v>
+      </c>
+      <c r="L446" s="5"/>
+      <c r="M446" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="N446" s="10"/>
+    </row>
+    <row r="447" spans="1:14">
+      <c r="A447" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B447" s="3">
+        <v>44582</v>
+      </c>
+      <c r="C447" s="4">
+        <v>44643</v>
+      </c>
+      <c r="D447" s="5"/>
+      <c r="E447" s="3">
+        <v>44697</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G447" s="7"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J447" s="5"/>
+      <c r="K447" s="8">
+        <v>658</v>
+      </c>
+      <c r="L447" s="5"/>
+      <c r="M447" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N447" s="10"/>
+    </row>
+    <row r="448" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A448" s="43" t="s">
+        <v>699</v>
+      </c>
+      <c r="B448" s="44"/>
+      <c r="C448" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="D448" s="46"/>
+      <c r="E448" s="47"/>
+      <c r="F448" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="G448" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="H448" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="I448" s="47"/>
+      <c r="J448" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="K448" s="47"/>
+      <c r="L448" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="M448" s="47"/>
+      <c r="N448" s="49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" s="42" customFormat="1">
+      <c r="A449" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="B449" s="37"/>
+      <c r="C449" s="38">
+        <v>28617</v>
+      </c>
+      <c r="D449" s="17"/>
+      <c r="E449" s="18"/>
+      <c r="F449" s="39">
+        <v>217</v>
+      </c>
+      <c r="G449" s="40">
+        <v>16</v>
+      </c>
+      <c r="H449" s="38">
         <v>2</v>
       </c>
-      <c r="I380" s="18"/>
-      <c r="J380" s="21">
-        <v>176</v>
-      </c>
-      <c r="K380" s="18"/>
-      <c r="L380" s="21">
-        <v>7</v>
-      </c>
-      <c r="M380" s="18"/>
-      <c r="N380" s="23">
+      <c r="I449" s="18"/>
+      <c r="J449" s="38">
+        <v>200</v>
+      </c>
+      <c r="K449" s="18"/>
+      <c r="L449" s="38">
+        <v>8</v>
+      </c>
+      <c r="M449" s="18"/>
+      <c r="N449" s="41">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1892">
-    <mergeCell ref="C380:E380"/>
-    <mergeCell ref="H380:I380"/>
-    <mergeCell ref="J380:K380"/>
-    <mergeCell ref="L380:M380"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="H379:I379"/>
-    <mergeCell ref="J379:K379"/>
-    <mergeCell ref="L379:M379"/>
-    <mergeCell ref="A379:B379"/>
+  <mergeCells count="2237">
+    <mergeCell ref="C449:E449"/>
+    <mergeCell ref="H449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="A449:B449"/>
+    <mergeCell ref="C448:E448"/>
+    <mergeCell ref="H448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="C447:D447"/>
+    <mergeCell ref="F447:H447"/>
+    <mergeCell ref="I447:J447"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="M447:N447"/>
+    <mergeCell ref="C446:D446"/>
+    <mergeCell ref="F446:H446"/>
+    <mergeCell ref="I446:J446"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="M446:N446"/>
+    <mergeCell ref="C445:D445"/>
+    <mergeCell ref="F445:H445"/>
+    <mergeCell ref="I445:J445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="M445:N445"/>
+    <mergeCell ref="C444:D444"/>
+    <mergeCell ref="F444:H444"/>
+    <mergeCell ref="I444:J444"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M444:N444"/>
+    <mergeCell ref="C443:D443"/>
+    <mergeCell ref="F443:H443"/>
+    <mergeCell ref="I443:J443"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="F442:H442"/>
+    <mergeCell ref="I442:J442"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="F441:H441"/>
+    <mergeCell ref="I441:J441"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="C440:D440"/>
+    <mergeCell ref="F440:H440"/>
+    <mergeCell ref="I440:J440"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="C439:D439"/>
+    <mergeCell ref="F439:H439"/>
+    <mergeCell ref="I439:J439"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="C438:D438"/>
+    <mergeCell ref="F438:H438"/>
+    <mergeCell ref="I438:J438"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="F437:H437"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="C436:D436"/>
+    <mergeCell ref="F436:H436"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="C435:D435"/>
+    <mergeCell ref="F435:H435"/>
+    <mergeCell ref="I435:J435"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="F434:H434"/>
+    <mergeCell ref="I434:J434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="F433:H433"/>
+    <mergeCell ref="I433:J433"/>
+    <mergeCell ref="K433:L433"/>
+    <mergeCell ref="M433:N433"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="F432:H432"/>
+    <mergeCell ref="I432:J432"/>
+    <mergeCell ref="K432:L432"/>
+    <mergeCell ref="M432:N432"/>
+    <mergeCell ref="C431:D431"/>
+    <mergeCell ref="F431:H431"/>
+    <mergeCell ref="I431:J431"/>
+    <mergeCell ref="K431:L431"/>
+    <mergeCell ref="M431:N431"/>
+    <mergeCell ref="C430:D430"/>
+    <mergeCell ref="F430:H430"/>
+    <mergeCell ref="I430:J430"/>
+    <mergeCell ref="K430:L430"/>
+    <mergeCell ref="M430:N430"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="F429:H429"/>
+    <mergeCell ref="I429:J429"/>
+    <mergeCell ref="K429:L429"/>
+    <mergeCell ref="M429:N429"/>
+    <mergeCell ref="C428:D428"/>
+    <mergeCell ref="F428:H428"/>
+    <mergeCell ref="I428:J428"/>
+    <mergeCell ref="K428:L428"/>
+    <mergeCell ref="M428:N428"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="F427:H427"/>
+    <mergeCell ref="I427:J427"/>
+    <mergeCell ref="K427:L427"/>
+    <mergeCell ref="M427:N427"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="F426:H426"/>
+    <mergeCell ref="I426:J426"/>
+    <mergeCell ref="K426:L426"/>
+    <mergeCell ref="M426:N426"/>
+    <mergeCell ref="C425:D425"/>
+    <mergeCell ref="F425:H425"/>
+    <mergeCell ref="I425:J425"/>
+    <mergeCell ref="K425:L425"/>
+    <mergeCell ref="M425:N425"/>
+    <mergeCell ref="C424:D424"/>
+    <mergeCell ref="F424:H424"/>
+    <mergeCell ref="I424:J424"/>
+    <mergeCell ref="K424:L424"/>
+    <mergeCell ref="M424:N424"/>
+    <mergeCell ref="C423:D423"/>
+    <mergeCell ref="F423:H423"/>
+    <mergeCell ref="I423:J423"/>
+    <mergeCell ref="K423:L423"/>
+    <mergeCell ref="M423:N423"/>
+    <mergeCell ref="C422:D422"/>
+    <mergeCell ref="F422:H422"/>
+    <mergeCell ref="I422:J422"/>
+    <mergeCell ref="K422:L422"/>
+    <mergeCell ref="M422:N422"/>
+    <mergeCell ref="C421:D421"/>
+    <mergeCell ref="F421:H421"/>
+    <mergeCell ref="I421:J421"/>
+    <mergeCell ref="K421:L421"/>
+    <mergeCell ref="M421:N421"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="F420:H420"/>
+    <mergeCell ref="I420:J420"/>
+    <mergeCell ref="K420:L420"/>
+    <mergeCell ref="M420:N420"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="F419:H419"/>
+    <mergeCell ref="I419:J419"/>
+    <mergeCell ref="K419:L419"/>
+    <mergeCell ref="M419:N419"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="F418:H418"/>
+    <mergeCell ref="I418:J418"/>
+    <mergeCell ref="K418:L418"/>
+    <mergeCell ref="M418:N418"/>
+    <mergeCell ref="C417:D417"/>
+    <mergeCell ref="F417:H417"/>
+    <mergeCell ref="I417:J417"/>
+    <mergeCell ref="K417:L417"/>
+    <mergeCell ref="M417:N417"/>
+    <mergeCell ref="C416:D416"/>
+    <mergeCell ref="F416:H416"/>
+    <mergeCell ref="I416:J416"/>
+    <mergeCell ref="K416:L416"/>
+    <mergeCell ref="M416:N416"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="F415:H415"/>
+    <mergeCell ref="I415:J415"/>
+    <mergeCell ref="K415:L415"/>
+    <mergeCell ref="M415:N415"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="F414:H414"/>
+    <mergeCell ref="I414:J414"/>
+    <mergeCell ref="K414:L414"/>
+    <mergeCell ref="M414:N414"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="F413:H413"/>
+    <mergeCell ref="I413:J413"/>
+    <mergeCell ref="K413:L413"/>
+    <mergeCell ref="M413:N413"/>
+    <mergeCell ref="C412:D412"/>
+    <mergeCell ref="F412:H412"/>
+    <mergeCell ref="I412:J412"/>
+    <mergeCell ref="K412:L412"/>
+    <mergeCell ref="M412:N412"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="F411:H411"/>
+    <mergeCell ref="I411:J411"/>
+    <mergeCell ref="K411:L411"/>
+    <mergeCell ref="M411:N411"/>
+    <mergeCell ref="C410:D410"/>
+    <mergeCell ref="F410:H410"/>
+    <mergeCell ref="I410:J410"/>
+    <mergeCell ref="K410:L410"/>
+    <mergeCell ref="M410:N410"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="F409:H409"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="K409:L409"/>
+    <mergeCell ref="M409:N409"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="F408:H408"/>
+    <mergeCell ref="I408:J408"/>
+    <mergeCell ref="K408:L408"/>
+    <mergeCell ref="M408:N408"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="F407:H407"/>
+    <mergeCell ref="I407:J407"/>
+    <mergeCell ref="K407:L407"/>
+    <mergeCell ref="M407:N407"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="F406:H406"/>
+    <mergeCell ref="I406:J406"/>
+    <mergeCell ref="K406:L406"/>
+    <mergeCell ref="M406:N406"/>
+    <mergeCell ref="C405:D405"/>
+    <mergeCell ref="F405:H405"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="K405:L405"/>
+    <mergeCell ref="M405:N405"/>
+    <mergeCell ref="C404:D404"/>
+    <mergeCell ref="F404:H404"/>
+    <mergeCell ref="I404:J404"/>
+    <mergeCell ref="K404:L404"/>
+    <mergeCell ref="M404:N404"/>
+    <mergeCell ref="C403:D403"/>
+    <mergeCell ref="F403:H403"/>
+    <mergeCell ref="I403:J403"/>
+    <mergeCell ref="K403:L403"/>
+    <mergeCell ref="M403:N403"/>
+    <mergeCell ref="C402:D402"/>
+    <mergeCell ref="F402:H402"/>
+    <mergeCell ref="I402:J402"/>
+    <mergeCell ref="K402:L402"/>
+    <mergeCell ref="M402:N402"/>
+    <mergeCell ref="C401:D401"/>
+    <mergeCell ref="F401:H401"/>
+    <mergeCell ref="I401:J401"/>
+    <mergeCell ref="K401:L401"/>
+    <mergeCell ref="M401:N401"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="F400:H400"/>
+    <mergeCell ref="I400:J400"/>
+    <mergeCell ref="K400:L400"/>
+    <mergeCell ref="M400:N400"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="F399:H399"/>
+    <mergeCell ref="I399:J399"/>
+    <mergeCell ref="K399:L399"/>
+    <mergeCell ref="M399:N399"/>
+    <mergeCell ref="C398:D398"/>
+    <mergeCell ref="F398:H398"/>
+    <mergeCell ref="I398:J398"/>
+    <mergeCell ref="K398:L398"/>
+    <mergeCell ref="M398:N398"/>
+    <mergeCell ref="C397:D397"/>
+    <mergeCell ref="F397:H397"/>
+    <mergeCell ref="I397:J397"/>
+    <mergeCell ref="K397:L397"/>
+    <mergeCell ref="M397:N397"/>
+    <mergeCell ref="C396:D396"/>
+    <mergeCell ref="F396:H396"/>
+    <mergeCell ref="I396:J396"/>
+    <mergeCell ref="K396:L396"/>
+    <mergeCell ref="M396:N396"/>
+    <mergeCell ref="C395:D395"/>
+    <mergeCell ref="F395:H395"/>
+    <mergeCell ref="I395:J395"/>
+    <mergeCell ref="K395:L395"/>
+    <mergeCell ref="M395:N395"/>
+    <mergeCell ref="C394:D394"/>
+    <mergeCell ref="F394:H394"/>
+    <mergeCell ref="I394:J394"/>
+    <mergeCell ref="K394:L394"/>
+    <mergeCell ref="M394:N394"/>
+    <mergeCell ref="C393:D393"/>
+    <mergeCell ref="F393:H393"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="K393:L393"/>
+    <mergeCell ref="M393:N393"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="F392:H392"/>
+    <mergeCell ref="I392:J392"/>
+    <mergeCell ref="K392:L392"/>
+    <mergeCell ref="M392:N392"/>
+    <mergeCell ref="C391:D391"/>
+    <mergeCell ref="F391:H391"/>
+    <mergeCell ref="I391:J391"/>
+    <mergeCell ref="K391:L391"/>
+    <mergeCell ref="M391:N391"/>
+    <mergeCell ref="C390:D390"/>
+    <mergeCell ref="F390:H390"/>
+    <mergeCell ref="I390:J390"/>
+    <mergeCell ref="K390:L390"/>
+    <mergeCell ref="M390:N390"/>
+    <mergeCell ref="C389:D389"/>
+    <mergeCell ref="F389:H389"/>
+    <mergeCell ref="I389:J389"/>
+    <mergeCell ref="K389:L389"/>
+    <mergeCell ref="M389:N389"/>
+    <mergeCell ref="C388:D388"/>
+    <mergeCell ref="F388:H388"/>
+    <mergeCell ref="I388:J388"/>
+    <mergeCell ref="K388:L388"/>
+    <mergeCell ref="M388:N388"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="F387:H387"/>
+    <mergeCell ref="I387:J387"/>
+    <mergeCell ref="K387:L387"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="F386:H386"/>
+    <mergeCell ref="I386:J386"/>
+    <mergeCell ref="K386:L386"/>
+    <mergeCell ref="M386:N386"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="F385:H385"/>
+    <mergeCell ref="I385:J385"/>
+    <mergeCell ref="K385:L385"/>
+    <mergeCell ref="M385:N385"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="F384:H384"/>
+    <mergeCell ref="I384:J384"/>
+    <mergeCell ref="K384:L384"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="F383:H383"/>
+    <mergeCell ref="I383:J383"/>
+    <mergeCell ref="K383:L383"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="F382:H382"/>
+    <mergeCell ref="I382:J382"/>
+    <mergeCell ref="K382:L382"/>
+    <mergeCell ref="M382:N382"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="F381:H381"/>
+    <mergeCell ref="I381:J381"/>
+    <mergeCell ref="K381:L381"/>
+    <mergeCell ref="M381:N381"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="F380:H380"/>
+    <mergeCell ref="I380:J380"/>
+    <mergeCell ref="K380:L380"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="F379:H379"/>
+    <mergeCell ref="I379:J379"/>
+    <mergeCell ref="K379:L379"/>
+    <mergeCell ref="M379:N379"/>
     <mergeCell ref="C378:D378"/>
     <mergeCell ref="F378:H378"/>
     <mergeCell ref="I378:J378"/>
@@ -16866,13 +19742,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68FA8292-55B4-451F-8A81-E6482FE5014B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E66EB2F-E058-402F-A1E9-1A035C8BC8EE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B3C61-3E23-4DFC-8A0E-79D7697F4520}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C57AD99-C08E-4EB9-A2FC-B3441436FFB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35895F4-9843-43D7-8B67-0D2328FC7372}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C4B887-1E3A-466D-9DB8-0D585B8E349F}"/>
 </file>